--- a/Data/Sprint 1/Data Runi.xlsx
+++ b/Data/Sprint 1/Data Runi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Restoran" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="1254">
   <si>
     <t>Nama</t>
   </si>
@@ -3741,9 +3741,6 @@
     <t>Chicken Boneless 2 pcs + Rice + Lemon Tea</t>
   </si>
   <si>
-    <t>Eastern</t>
-  </si>
-  <si>
     <t>Green Tea Pudding</t>
   </si>
   <si>
@@ -3781,63 +3778,6 @@
   </si>
   <si>
     <t>Bawa pulang</t>
-  </si>
-  <si>
-    <t>Fast Food, Eastern</t>
-  </si>
-  <si>
-    <t>Indonesian, Jawa, Desserts</t>
-  </si>
-  <si>
-    <t>American, Western</t>
-  </si>
-  <si>
-    <t>Jawa, Soto, Satay</t>
-  </si>
-  <si>
-    <t>Fast Food, Japanese</t>
-  </si>
-  <si>
-    <t>Bubble Tea, Beverages</t>
-  </si>
-  <si>
-    <t>Japanese, Sushi, Ramen</t>
-  </si>
-  <si>
-    <t>Singaporean</t>
-  </si>
-  <si>
-    <t>Fast Food, American</t>
-  </si>
-  <si>
-    <t>Fast Food</t>
-  </si>
-  <si>
-    <t>Jawa</t>
-  </si>
-  <si>
-    <t>Desserts</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>Soto</t>
-  </si>
-  <si>
-    <t>Satay</t>
-  </si>
-  <si>
-    <t>Bubble Tea</t>
-  </si>
-  <si>
-    <t>Beverages</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Ramen</t>
   </si>
   <si>
     <t>FL2</t>
@@ -4515,7 +4455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4564,7 +4504,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -4584,7 +4524,7 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>1271</v>
+        <v>1251</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="2">
@@ -4602,7 +4542,7 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="2">
@@ -4618,7 +4558,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>1273</v>
+        <v>1253</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="2">
@@ -4636,7 +4576,7 @@
         <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="2">
@@ -4654,7 +4594,7 @@
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -4672,7 +4612,7 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4692,7 +4632,7 @@
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>1273</v>
+        <v>1253</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="2">
@@ -4708,7 +4648,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -4726,7 +4666,7 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4744,7 +4684,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4764,7 +4704,7 @@
         <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -5100,8 +5040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O723"/>
   <sheetViews>
-    <sheetView topLeftCell="A587" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B604" sqref="B604"/>
+    <sheetView topLeftCell="A586" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5185,7 +5125,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -5223,7 +5163,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -5261,7 +5201,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -5299,7 +5239,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -5337,7 +5277,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -5375,7 +5315,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -5413,7 +5353,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -5448,7 +5388,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -5486,7 +5426,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -5524,7 +5464,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -5562,7 +5502,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -5600,7 +5540,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -5638,7 +5578,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -5676,7 +5616,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -5714,7 +5654,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="H16"/>
       <c r="J16" s="2">
@@ -5753,7 +5693,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="H17"/>
       <c r="J17" s="2">
@@ -5789,7 +5729,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -5824,7 +5764,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -5859,7 +5799,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -6107,7 +6047,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -6142,7 +6082,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -6177,7 +6117,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -6212,7 +6152,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -6247,7 +6187,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -6282,7 +6222,7 @@
         <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -6317,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -6352,7 +6292,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -6387,7 +6327,7 @@
         <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -6422,7 +6362,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>1213</v>
@@ -6460,7 +6400,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>1214</v>
@@ -6498,7 +6438,7 @@
         <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1237</v>
+        <v>4</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>1215</v>
@@ -11352,7 +11292,7 @@
         <v>789</v>
       </c>
       <c r="B176" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C176">
         <v>7272</v>
@@ -25212,7 +25152,7 @@
         <v>1185</v>
       </c>
       <c r="B572" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C572">
         <v>16364</v>
@@ -25230,7 +25170,7 @@
         <v>18</v>
       </c>
       <c r="H572" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J572" s="2">
         <v>0</v>
@@ -25250,7 +25190,7 @@
         <v>1186</v>
       </c>
       <c r="B573" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C573">
         <v>20000</v>
@@ -25268,7 +25208,7 @@
         <v>18</v>
       </c>
       <c r="H573" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="J573" s="2">
         <v>0</v>
@@ -25288,7 +25228,7 @@
         <v>1187</v>
       </c>
       <c r="B574" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C574">
         <v>21818</v>
@@ -25306,7 +25246,7 @@
         <v>18</v>
       </c>
       <c r="H574" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J574" s="2">
         <v>0</v>
@@ -25326,7 +25266,7 @@
         <v>1188</v>
       </c>
       <c r="B575" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C575">
         <v>26364</v>
@@ -25344,7 +25284,7 @@
         <v>18</v>
       </c>
       <c r="H575" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J575" s="2">
         <v>0</v>
@@ -25364,7 +25304,7 @@
         <v>1189</v>
       </c>
       <c r="B576" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C576">
         <v>16364</v>
@@ -25382,7 +25322,7 @@
         <v>18</v>
       </c>
       <c r="H576" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="J576" s="2">
         <v>0</v>
@@ -26099,7 +26039,7 @@
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A597" s="16" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B597" t="s">
         <v>613</v>
@@ -26134,7 +26074,7 @@
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A598" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B598" t="s">
         <v>614</v>
@@ -27090,7 +27030,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -27106,7 +27046,7 @@
         <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -27122,7 +27062,7 @@
         <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -27138,7 +27078,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -27154,7 +27094,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -27170,7 +27110,7 @@
         <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -27186,7 +27126,7 @@
         <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -27194,7 +27134,7 @@
         <v>98</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -27210,7 +27150,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -27226,7 +27166,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -27242,7 +27182,7 @@
         <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -27258,7 +27198,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -27546,7 +27486,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28765,10 +28705,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28778,7 +28718,7 @@
     <col min="4" max="4" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -28786,225 +28726,169 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1267</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1268</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1269</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A20" s="20"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>1258</v>
-      </c>
+      <c r="A21" s="23"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A22" s="20"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>1260</v>
-      </c>
+      <c r="A23" s="23"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>1263</v>
-      </c>
+      <c r="A24" s="20"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
